--- a/Archive/NAV Log Calculator - Flight Planner - E6B-like v1.6.xlsx
+++ b/Archive/NAV Log Calculator - Flight Planner - E6B-like v1.6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/194e8d034589e5e8/Aviation/NAV/Aviation-Navigation-Log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="259" documentId="8_{01E3AC8C-3A4E-47ED-9075-CBB3647E6929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E3F5C03-8D91-AA4C-9600-802309FAE2EC}"/>
+  <xr:revisionPtr revIDLastSave="272" documentId="8_{01E3AC8C-3A4E-47ED-9075-CBB3647E6929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7051D358-D3AA-B645-8DAF-8CB9C44CD1FB}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="818" firstSheet="2" activeTab="2" xr2:uid="{81AC26DA-A476-4998-AAF9-3938C858D589}"/>
+    <workbookView xWindow="44880" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="818" firstSheet="2" activeTab="5" xr2:uid="{81AC26DA-A476-4998-AAF9-3938C858D589}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas" sheetId="2" r:id="rId1"/>
@@ -2079,145 +2079,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="23" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="23" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="20" fontId="23" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2281,8 +2142,163 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="23" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="23" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="23" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="20" fontId="23" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2313,10 +2329,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2344,18 +2356,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2530,10 +2530,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.93969262078590832</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.93969262078590832</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2545,10 +2545,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.34202014332566888</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.34202014332566888</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2726,7 +2726,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.54463903501502708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2741,7 +2741,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.83867056794542405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3108,7 +3108,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.34202014332566882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3123,7 +3123,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.93969262078590832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9459,8 +9459,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8443" y="1733426"/>
-          <a:ext cx="78458" cy="3914282"/>
+          <a:off x="8443" y="1730039"/>
+          <a:ext cx="78458" cy="3926982"/>
           <a:chOff x="17968" y="1465456"/>
           <a:chExt cx="78458" cy="3917213"/>
         </a:xfrm>
@@ -9874,8 +9874,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm flipH="1">
-          <a:off x="1336973" y="1736740"/>
-          <a:ext cx="72108" cy="3914282"/>
+          <a:off x="1336973" y="1733353"/>
+          <a:ext cx="72108" cy="3926982"/>
           <a:chOff x="17968" y="1465456"/>
           <a:chExt cx="78458" cy="3917213"/>
         </a:xfrm>
@@ -11974,8 +11974,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="661650" y="4635499"/>
-          <a:ext cx="5773398" cy="6420717"/>
+          <a:off x="656720" y="4626378"/>
+          <a:ext cx="5770194" cy="6432550"/>
           <a:chOff x="8601419" y="4255632"/>
           <a:chExt cx="5835763" cy="6110022"/>
         </a:xfrm>
@@ -12104,8 +12104,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3657454" y="504372"/>
-          <a:ext cx="2465117" cy="2593931"/>
+          <a:off x="3650552" y="501907"/>
+          <a:ext cx="2463885" cy="2595164"/>
           <a:chOff x="4414857" y="295255"/>
           <a:chExt cx="4324745" cy="4339070"/>
         </a:xfrm>
@@ -12527,7 +12527,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Formulas"/>
@@ -13161,132 +13161,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="126"/>
-      <c r="E1" s="112" t="s">
+      <c r="B1" s="138"/>
+      <c r="C1" s="139"/>
+      <c r="E1" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="116"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="159"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="119" t="s">
+      <c r="N1" s="162" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="120"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="105" t="s">
+      <c r="O1" s="163"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="150" t="s">
         <v>70</v>
       </c>
       <c r="T1"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="128"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="117"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="141"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="160"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="106"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="161"/>
+      <c r="R2" s="151"/>
       <c r="T2"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E3" s="112" t="s">
+      <c r="E3" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="116"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="159"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="119" t="s">
+      <c r="N3" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="120"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="109" t="s">
+      <c r="O3" s="163"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="154" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="107"/>
-      <c r="S3" s="105" t="s">
+      <c r="R3" s="152"/>
+      <c r="S3" s="150" t="s">
         <v>71</v>
       </c>
       <c r="T3"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="114"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="117"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="111"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="160"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="153"/>
+      <c r="Q4" s="155"/>
+      <c r="R4" s="153"/>
+      <c r="S4" s="156"/>
       <c r="T4"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="140"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="147"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="138" t="s">
+      <c r="N6" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="139"/>
-      <c r="S6" s="139"/>
-      <c r="T6" s="140"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="147"/>
     </row>
     <row r="7" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="141" t="s">
+      <c r="C7" s="144"/>
+      <c r="D7" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="142"/>
+      <c r="E7" s="149"/>
       <c r="F7" s="59" t="s">
         <v>2</v>
       </c>
@@ -13316,7 +13316,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="133"/>
+      <c r="A8" s="142"/>
       <c r="B8" s="63" t="s">
         <v>0</v>
       </c>
@@ -13374,33 +13374,33 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="134"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="131" t="str">
+      <c r="A9" s="127"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="129" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D9-B9))*(E9/G9)))),0),"")</f>
         <v/>
       </c>
-      <c r="I9" s="131" t="str">
+      <c r="I9" s="129" t="str">
         <f>IFERROR(ROUND(MOD(B9+H9,360),0),"")</f>
         <v/>
       </c>
-      <c r="J9" s="132"/>
-      <c r="K9" s="131" t="str">
+      <c r="J9" s="130"/>
+      <c r="K9" s="129" t="str">
         <f>IFERROR(MOD(I9+J9,360),"")</f>
         <v/>
       </c>
-      <c r="L9" s="132"/>
+      <c r="L9" s="130"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="131" t="str">
+      <c r="N9" s="129" t="str">
         <f>IFERROR(MOD(K9+L9,360),"")</f>
         <v/>
       </c>
-      <c r="O9" s="132"/>
+      <c r="O9" s="130"/>
       <c r="P9" s="43" t="str">
         <f>IFERROR(SQRT(G9^2+E9^2-2*G9*E9*COS(RADIANS(D9-B9-H9))),"")</f>
         <v/>
@@ -13423,21 +13423,21 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="135"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="132"/>
+      <c r="A10" s="126"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="130"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="132"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="130"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="54"/>
@@ -13445,33 +13445,33 @@
       <c r="T10" s="53"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="134"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="129" t="str">
+      <c r="A11" s="127"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="133" t="str">
         <f t="shared" ref="H11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D11-B11))*(E11/G11)))),0),"")</f>
         <v/>
       </c>
-      <c r="I11" s="129" t="str">
+      <c r="I11" s="133" t="str">
         <f>IFERROR(ROUND(MOD(B11+H11,360),0),"")</f>
         <v/>
       </c>
-      <c r="J11" s="130"/>
-      <c r="K11" s="129" t="str">
+      <c r="J11" s="135"/>
+      <c r="K11" s="133" t="str">
         <f t="shared" ref="K11" si="1">IFERROR(MOD(I11+J11,360),"")</f>
         <v/>
       </c>
-      <c r="L11" s="130"/>
+      <c r="L11" s="135"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="129" t="str">
+      <c r="N11" s="133" t="str">
         <f>IFERROR(MOD(K11+L11,360),"")</f>
         <v/>
       </c>
-      <c r="O11" s="130"/>
+      <c r="O11" s="135"/>
       <c r="P11" s="46" t="str">
         <f>IFERROR(SQRT(G11^2+E11^2-2*G11*E11*COS(RADIANS(D11-B11-H11))),"")</f>
         <v/>
@@ -13494,21 +13494,21 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="135"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="130"/>
+      <c r="A12" s="126"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="135"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="130"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="135"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
@@ -13516,33 +13516,33 @@
       <c r="T12" s="44"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="134"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="131" t="str">
+      <c r="A13" s="127"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="129" t="str">
         <f t="shared" ref="H13" si="3">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D13-B13))*(E13/G13)))),0),"")</f>
         <v/>
       </c>
-      <c r="I13" s="131" t="str">
+      <c r="I13" s="129" t="str">
         <f t="shared" ref="I13" si="4">IFERROR(ROUND(MOD(B13+H13,360),0),"")</f>
         <v/>
       </c>
-      <c r="J13" s="132"/>
-      <c r="K13" s="131" t="str">
+      <c r="J13" s="130"/>
+      <c r="K13" s="129" t="str">
         <f t="shared" ref="K13" si="5">IFERROR(MOD(I13+J13,360),"")</f>
         <v/>
       </c>
-      <c r="L13" s="132"/>
+      <c r="L13" s="130"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="131" t="str">
+      <c r="N13" s="129" t="str">
         <f>IFERROR(MOD(K13+L13,360),"")</f>
         <v/>
       </c>
-      <c r="O13" s="132"/>
+      <c r="O13" s="130"/>
       <c r="P13" s="43" t="str">
         <f>IFERROR(SQRT(G13^2+E13^2-2*G13*E13*COS(RADIANS(D13-B13-H13))),"")</f>
         <v/>
@@ -13565,21 +13565,21 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="135"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="132"/>
+      <c r="A14" s="126"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="130"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="132"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="130"/>
       <c r="P14" s="53"/>
       <c r="Q14" s="53"/>
       <c r="R14" s="54"/>
@@ -13587,33 +13587,33 @@
       <c r="T14" s="53"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="134"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="129" t="str">
+      <c r="A15" s="127"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="133" t="str">
         <f t="shared" ref="H15" si="7">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D15-B15))*(E15/G15)))),0),"")</f>
         <v/>
       </c>
-      <c r="I15" s="129" t="str">
+      <c r="I15" s="133" t="str">
         <f t="shared" ref="I15" si="8">IFERROR(ROUND(MOD(B15+H15,360),0),"")</f>
         <v/>
       </c>
-      <c r="J15" s="130"/>
-      <c r="K15" s="129" t="str">
+      <c r="J15" s="135"/>
+      <c r="K15" s="133" t="str">
         <f t="shared" ref="K15" si="9">IFERROR(MOD(I15+J15,360),"")</f>
         <v/>
       </c>
-      <c r="L15" s="130"/>
+      <c r="L15" s="135"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="129" t="str">
+      <c r="N15" s="133" t="str">
         <f>IFERROR(MOD(K15+L15,360),"")</f>
         <v/>
       </c>
-      <c r="O15" s="130"/>
+      <c r="O15" s="135"/>
       <c r="P15" s="46" t="str">
         <f>IFERROR(SQRT(G15^2+E15^2-2*G15*E15*COS(RADIANS(D15-B15-H15))),"")</f>
         <v/>
@@ -13636,21 +13636,21 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="135"/>
-      <c r="B16" s="143"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="130"/>
+      <c r="A16" s="126"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="135"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="130"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="135"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
@@ -13658,33 +13658,33 @@
       <c r="T16" s="44"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="134"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="131" t="str">
+      <c r="A17" s="127"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="129" t="str">
         <f t="shared" ref="H17" si="11">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D17-B17))*(E17/G17)))),0),"")</f>
         <v/>
       </c>
-      <c r="I17" s="131" t="str">
+      <c r="I17" s="129" t="str">
         <f t="shared" ref="I17" si="12">IFERROR(ROUND(MOD(B17+H17,360),0),"")</f>
         <v/>
       </c>
-      <c r="J17" s="132"/>
-      <c r="K17" s="131" t="str">
+      <c r="J17" s="130"/>
+      <c r="K17" s="129" t="str">
         <f t="shared" ref="K17" si="13">IFERROR(MOD(I17+J17,360),"")</f>
         <v/>
       </c>
-      <c r="L17" s="132"/>
+      <c r="L17" s="130"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="131" t="str">
+      <c r="N17" s="129" t="str">
         <f>IFERROR(MOD(K17+L17,360),"")</f>
         <v/>
       </c>
-      <c r="O17" s="132"/>
+      <c r="O17" s="130"/>
       <c r="P17" s="43" t="str">
         <f>IFERROR(SQRT(G17^2+E17^2-2*G17*E17*COS(RADIANS(D17-B17-H17))),"")</f>
         <v/>
@@ -13707,21 +13707,21 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="135"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="132"/>
+      <c r="A18" s="126"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="130"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="132"/>
+      <c r="N18" s="129"/>
+      <c r="O18" s="130"/>
       <c r="P18" s="53"/>
       <c r="Q18" s="53"/>
       <c r="R18" s="54"/>
@@ -13729,33 +13729,33 @@
       <c r="T18" s="53"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="134"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="129" t="str">
+      <c r="A19" s="127"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="133" t="str">
         <f t="shared" ref="H19" si="15">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D19-B19))*(E19/G19)))),0),"")</f>
         <v/>
       </c>
-      <c r="I19" s="129" t="str">
+      <c r="I19" s="133" t="str">
         <f t="shared" ref="I19" si="16">IFERROR(ROUND(MOD(B19+H19,360),0),"")</f>
         <v/>
       </c>
-      <c r="J19" s="130"/>
-      <c r="K19" s="129" t="str">
+      <c r="J19" s="135"/>
+      <c r="K19" s="133" t="str">
         <f t="shared" ref="K19" si="17">IFERROR(MOD(I19+J19,360),"")</f>
         <v/>
       </c>
-      <c r="L19" s="130"/>
+      <c r="L19" s="135"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="129" t="str">
+      <c r="N19" s="133" t="str">
         <f>IFERROR(MOD(K19+L19,360),"")</f>
         <v/>
       </c>
-      <c r="O19" s="130"/>
+      <c r="O19" s="135"/>
       <c r="P19" s="46" t="str">
         <f>IFERROR(SQRT(G19^2+E19^2-2*G19*E19*COS(RADIANS(D19-B19-H19))),"")</f>
         <v/>
@@ -13778,21 +13778,21 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="135"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="130"/>
+      <c r="A20" s="126"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="135"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="129"/>
-      <c r="O20" s="130"/>
+      <c r="N20" s="133"/>
+      <c r="O20" s="135"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
@@ -13800,33 +13800,33 @@
       <c r="T20" s="44"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="134"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="131" t="str">
+      <c r="A21" s="127"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="129" t="str">
         <f t="shared" ref="H21" si="19">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D21-B21))*(E21/G21)))),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="131" t="str">
+      <c r="I21" s="129" t="str">
         <f t="shared" ref="I21" si="20">IFERROR(ROUND(MOD(B21+H21,360),0),"")</f>
         <v/>
       </c>
-      <c r="J21" s="132"/>
-      <c r="K21" s="131" t="str">
+      <c r="J21" s="130"/>
+      <c r="K21" s="129" t="str">
         <f t="shared" ref="K21" si="21">IFERROR(MOD(I21+J21,360),"")</f>
         <v/>
       </c>
-      <c r="L21" s="132"/>
+      <c r="L21" s="130"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="131" t="str">
+      <c r="N21" s="129" t="str">
         <f>IFERROR(MOD(K21+L21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="132"/>
+      <c r="O21" s="130"/>
       <c r="P21" s="43" t="str">
         <f>IFERROR(SQRT(G21^2+E21^2-2*G21*E21*COS(RADIANS(D21-B21-H21))),"")</f>
         <v/>
@@ -13849,21 +13849,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="135"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="132"/>
+      <c r="A22" s="126"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="130"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="132"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="130"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
       <c r="R22" s="54"/>
@@ -13871,33 +13871,33 @@
       <c r="T22" s="53"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="134"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="129" t="str">
+      <c r="A23" s="127"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="133" t="str">
         <f t="shared" ref="H23" si="23">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D23-B23))*(E23/G23)))),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="129" t="str">
+      <c r="I23" s="133" t="str">
         <f t="shared" ref="I23" si="24">IFERROR(ROUND(MOD(B23+H23,360),0),"")</f>
         <v/>
       </c>
-      <c r="J23" s="130"/>
-      <c r="K23" s="131" t="str">
+      <c r="J23" s="135"/>
+      <c r="K23" s="129" t="str">
         <f t="shared" ref="K23" si="25">IFERROR(MOD(I23+J23,360),"")</f>
         <v/>
       </c>
-      <c r="L23" s="130"/>
+      <c r="L23" s="135"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="131" t="str">
+      <c r="N23" s="129" t="str">
         <f>IFERROR(MOD(K23+L23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="130"/>
+      <c r="O23" s="135"/>
       <c r="P23" s="46" t="str">
         <f>IFERROR(SQRT(G23^2+E23^2-2*G23*E23*COS(RADIANS(D23-B23-H23))),"")</f>
         <v/>
@@ -13920,21 +13920,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="135"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="130"/>
+      <c r="A24" s="126"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="129"/>
+      <c r="L24" s="135"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="131"/>
-      <c r="O24" s="130"/>
+      <c r="N24" s="129"/>
+      <c r="O24" s="135"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
@@ -13942,33 +13942,33 @@
       <c r="T24" s="44"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="167"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="131" t="str">
+      <c r="A25" s="131"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="129" t="str">
         <f t="shared" ref="H25" si="27">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D25-B25))*(E25/G25)))),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="131" t="str">
+      <c r="I25" s="129" t="str">
         <f t="shared" ref="I25" si="28">IFERROR(ROUND(MOD(B25+H25,360),0),"")</f>
         <v/>
       </c>
-      <c r="J25" s="132"/>
-      <c r="K25" s="131" t="str">
+      <c r="J25" s="130"/>
+      <c r="K25" s="129" t="str">
         <f t="shared" ref="K25" si="29">IFERROR(MOD(I25+J25,360),"")</f>
         <v/>
       </c>
-      <c r="L25" s="132"/>
+      <c r="L25" s="130"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="131" t="str">
+      <c r="N25" s="129" t="str">
         <f>IFERROR(MOD(K25+L25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="132"/>
+      <c r="O25" s="130"/>
       <c r="P25" s="43" t="str">
         <f>IFERROR(SQRT(G25^2+E25^2-2*G25*E25*COS(RADIANS(D25-B25-H25))),"")</f>
         <v/>
@@ -13994,20 +13994,20 @@
       <c r="A26" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="145"/>
-      <c r="L26" s="144"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="132"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="144"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="132"/>
       <c r="P26" s="53"/>
       <c r="Q26" s="55"/>
       <c r="R26" s="56"/>
@@ -14015,130 +14015,256 @@
       <c r="T26" s="53"/>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="161" t="s">
+      <c r="A27" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="162"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="162"/>
-      <c r="H27" s="162"/>
-      <c r="I27" s="162"/>
-      <c r="J27" s="162"/>
-      <c r="K27" s="162"/>
-      <c r="L27" s="163"/>
-      <c r="O27" s="155">
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="122"/>
+      <c r="O27" s="114">
         <f>SUM(O9:O26)</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="157">
+      <c r="Q27" s="116">
         <f>SUM(Q9:Q26)</f>
         <v>0</v>
       </c>
-      <c r="R27" s="159">
+      <c r="R27" s="118">
         <f>MAX(R9:R26)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="157">
+      <c r="S27" s="116">
         <f>SUM(S9:S26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="164"/>
-      <c r="B28" s="165"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="165"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="165"/>
-      <c r="L28" s="166"/>
-      <c r="O28" s="156"/>
-      <c r="Q28" s="158"/>
-      <c r="R28" s="160"/>
-      <c r="S28" s="158"/>
+      <c r="A28" s="123"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="125"/>
+      <c r="O28" s="115"/>
+      <c r="Q28" s="117"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="117"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="146" t="s">
+      <c r="A29" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="147"/>
-      <c r="L29" s="148"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="107"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="149"/>
-      <c r="B30" s="150"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="151"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="110"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="149"/>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="151"/>
+      <c r="A31" s="108"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="110"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="149"/>
-      <c r="B32" s="150"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="151"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="109"/>
+      <c r="L32" s="110"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="152"/>
-      <c r="B33" s="153"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="153"/>
-      <c r="K33" s="153"/>
-      <c r="L33" s="154"/>
+      <c r="A33" s="111"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="113"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="150">
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="L15:L16"/>
     <mergeCell ref="A29:L33"/>
     <mergeCell ref="O27:O28"/>
     <mergeCell ref="Q27:Q28"/>
@@ -14163,132 +14289,6 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="P1:Q2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="N3:O4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
@@ -14301,7 +14301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7002BF1E-3608-46CE-99A5-FBE018EA192C}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
@@ -14318,144 +14318,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="125">
+      <c r="B1" s="138">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C1" s="126"/>
-      <c r="E1" s="112" t="s">
+      <c r="C1" s="139"/>
+      <c r="E1" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="107">
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="152">
         <v>38</v>
       </c>
-      <c r="I1" s="116"/>
+      <c r="I1" s="159"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="119" t="s">
+      <c r="N1" s="162" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="120"/>
-      <c r="P1" s="107">
+      <c r="O1" s="163"/>
+      <c r="P1" s="152">
         <v>3500</v>
       </c>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="105" t="s">
+      <c r="Q1" s="152"/>
+      <c r="R1" s="150" t="s">
         <v>70</v>
       </c>
       <c r="T1"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="128"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="117"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="141"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="160"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="106"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="161"/>
+      <c r="R2" s="151"/>
       <c r="T2"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E3" s="112" t="s">
+      <c r="E3" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="107">
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="152">
         <v>6.5</v>
       </c>
-      <c r="I3" s="116"/>
+      <c r="I3" s="159"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="119" t="s">
+      <c r="N3" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="O3" s="120"/>
-      <c r="P3" s="107">
+      <c r="O3" s="163"/>
+      <c r="P3" s="152">
         <v>215</v>
       </c>
-      <c r="Q3" s="109" t="s">
+      <c r="Q3" s="154" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="107">
+      <c r="R3" s="152">
         <v>17</v>
       </c>
-      <c r="S3" s="105" t="s">
+      <c r="S3" s="150" t="s">
         <v>71</v>
       </c>
       <c r="T3"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="114"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="117"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="111"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="160"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="153"/>
+      <c r="Q4" s="155"/>
+      <c r="R4" s="153"/>
+      <c r="S4" s="156"/>
       <c r="T4"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="140"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="147"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="138" t="s">
+      <c r="N6" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="139"/>
-      <c r="S6" s="139"/>
-      <c r="T6" s="140"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="147"/>
     </row>
     <row r="7" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="141" t="s">
+      <c r="C7" s="144"/>
+      <c r="D7" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="142"/>
+      <c r="E7" s="149"/>
       <c r="F7" s="59" t="s">
         <v>2</v>
       </c>
@@ -14485,7 +14485,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="142" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="63" t="s">
@@ -14545,49 +14545,49 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="134"/>
-      <c r="B9" s="132">
+      <c r="A9" s="127"/>
+      <c r="B9" s="130">
         <v>90</v>
       </c>
-      <c r="C9" s="132">
+      <c r="C9" s="130">
         <v>3500</v>
       </c>
-      <c r="D9" s="132">
+      <c r="D9" s="130">
         <v>215</v>
       </c>
-      <c r="E9" s="132">
+      <c r="E9" s="130">
         <v>17</v>
       </c>
-      <c r="F9" s="132">
+      <c r="F9" s="130">
         <v>-10</v>
       </c>
-      <c r="G9" s="132">
+      <c r="G9" s="130">
         <v>95</v>
       </c>
-      <c r="H9" s="131">
+      <c r="H9" s="129">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D9-B9))*(E9/G9)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="I9" s="131">
+      <c r="I9" s="129">
         <f>IFERROR(ROUND(MOD(B9+H9,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="J9" s="132">
+      <c r="J9" s="130">
         <v>13</v>
       </c>
-      <c r="K9" s="131">
+      <c r="K9" s="129">
         <f>IFERROR(MOD(I9+J9,360),"")</f>
         <v>111</v>
       </c>
-      <c r="L9" s="132">
+      <c r="L9" s="130">
         <v>0</v>
       </c>
       <c r="M9" s="7"/>
-      <c r="N9" s="131">
+      <c r="N9" s="129">
         <f>IFERROR(MOD(K9+L9,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O9" s="132">
+      <c r="O9" s="130">
         <v>7</v>
       </c>
       <c r="P9" s="94">
@@ -14612,23 +14612,23 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="132"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="130"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="132"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="130"/>
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="54"/>
@@ -14636,49 +14636,49 @@
       <c r="T10" s="53"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="134"/>
-      <c r="B11" s="130">
+      <c r="A11" s="127"/>
+      <c r="B11" s="135">
         <v>90</v>
       </c>
-      <c r="C11" s="130">
+      <c r="C11" s="135">
         <v>3500</v>
       </c>
-      <c r="D11" s="130">
+      <c r="D11" s="135">
         <v>215</v>
       </c>
-      <c r="E11" s="130">
+      <c r="E11" s="135">
         <v>17</v>
       </c>
-      <c r="F11" s="130">
+      <c r="F11" s="135">
         <v>-10</v>
       </c>
-      <c r="G11" s="130">
+      <c r="G11" s="135">
         <v>95</v>
       </c>
-      <c r="H11" s="129">
+      <c r="H11" s="133">
         <f t="shared" ref="H11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D11-B11))*(E11/G11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="I11" s="129">
+      <c r="I11" s="133">
         <f>IFERROR(ROUND(MOD(B11+H11,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="J11" s="130">
+      <c r="J11" s="135">
         <v>13</v>
       </c>
-      <c r="K11" s="129">
+      <c r="K11" s="133">
         <f t="shared" ref="K11" si="1">IFERROR(MOD(I11+J11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="L11" s="130">
+      <c r="L11" s="135">
         <v>0</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="129">
+      <c r="N11" s="133">
         <f>IFERROR(MOD(K11+L11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="130">
+      <c r="O11" s="135">
         <v>8</v>
       </c>
       <c r="P11" s="95">
@@ -14703,23 +14703,23 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="135" t="s">
+      <c r="A12" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="130"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="133"/>
+      <c r="L12" s="135"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="130"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="135"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
@@ -14727,49 +14727,49 @@
       <c r="T12" s="44"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="134"/>
-      <c r="B13" s="132">
+      <c r="A13" s="127"/>
+      <c r="B13" s="130">
         <v>131</v>
       </c>
-      <c r="C13" s="132">
+      <c r="C13" s="130">
         <v>3500</v>
       </c>
-      <c r="D13" s="132">
+      <c r="D13" s="130">
         <v>215</v>
       </c>
-      <c r="E13" s="132">
+      <c r="E13" s="130">
         <v>17</v>
       </c>
-      <c r="F13" s="132">
+      <c r="F13" s="130">
         <v>-10</v>
       </c>
-      <c r="G13" s="132">
+      <c r="G13" s="130">
         <v>95</v>
       </c>
-      <c r="H13" s="131">
+      <c r="H13" s="129">
         <f t="shared" ref="H13" si="3">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D13-B13))*(E13/G13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I13" s="131">
+      <c r="I13" s="129">
         <f t="shared" ref="I13" si="4">IFERROR(ROUND(MOD(B13+H13,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J13" s="132">
+      <c r="J13" s="130">
         <v>13</v>
       </c>
-      <c r="K13" s="131">
+      <c r="K13" s="129">
         <f t="shared" ref="K13" si="5">IFERROR(MOD(I13+J13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L13" s="132">
+      <c r="L13" s="130">
         <v>2</v>
       </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="131">
+      <c r="N13" s="129">
         <f>IFERROR(MOD(K13+L13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="132">
+      <c r="O13" s="130">
         <v>11</v>
       </c>
       <c r="P13" s="94">
@@ -14794,23 +14794,23 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="132"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="130"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="132"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="130"/>
       <c r="P14" s="53"/>
       <c r="Q14" s="53"/>
       <c r="R14" s="54"/>
@@ -14818,49 +14818,49 @@
       <c r="T14" s="53"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="134"/>
-      <c r="B15" s="143">
+      <c r="A15" s="127"/>
+      <c r="B15" s="128">
         <v>131</v>
       </c>
-      <c r="C15" s="143">
+      <c r="C15" s="128">
         <v>3500</v>
       </c>
-      <c r="D15" s="143">
+      <c r="D15" s="128">
         <v>215</v>
       </c>
-      <c r="E15" s="143">
+      <c r="E15" s="128">
         <v>17</v>
       </c>
-      <c r="F15" s="143">
+      <c r="F15" s="128">
         <v>-10</v>
       </c>
-      <c r="G15" s="143">
+      <c r="G15" s="128">
         <v>95</v>
       </c>
-      <c r="H15" s="129">
+      <c r="H15" s="133">
         <f t="shared" ref="H15" si="7">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D15-B15))*(E15/G15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I15" s="129">
+      <c r="I15" s="133">
         <f t="shared" ref="I15" si="8">IFERROR(ROUND(MOD(B15+H15,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J15" s="130">
+      <c r="J15" s="135">
         <v>13</v>
       </c>
-      <c r="K15" s="129">
+      <c r="K15" s="133">
         <f t="shared" ref="K15" si="9">IFERROR(MOD(I15+J15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L15" s="130">
+      <c r="L15" s="135">
         <v>2</v>
       </c>
       <c r="M15" s="7"/>
-      <c r="N15" s="129">
+      <c r="N15" s="133">
         <f>IFERROR(MOD(K15+L15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="130">
+      <c r="O15" s="135">
         <v>8</v>
       </c>
       <c r="P15" s="95">
@@ -14885,23 +14885,23 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="135" t="s">
+      <c r="A16" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="143"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="130"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="135"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="130"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="135"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
@@ -14909,49 +14909,49 @@
       <c r="T16" s="44"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="134"/>
-      <c r="B17" s="132">
+      <c r="A17" s="127"/>
+      <c r="B17" s="130">
         <v>131</v>
       </c>
-      <c r="C17" s="132">
+      <c r="C17" s="130">
         <v>3500</v>
       </c>
-      <c r="D17" s="132">
+      <c r="D17" s="130">
         <v>215</v>
       </c>
-      <c r="E17" s="132">
+      <c r="E17" s="130">
         <v>17</v>
       </c>
-      <c r="F17" s="132">
+      <c r="F17" s="130">
         <v>-10</v>
       </c>
-      <c r="G17" s="132">
+      <c r="G17" s="130">
         <v>95</v>
       </c>
-      <c r="H17" s="131">
+      <c r="H17" s="129">
         <f t="shared" ref="H17" si="11">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D17-B17))*(E17/G17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I17" s="131">
+      <c r="I17" s="129">
         <f t="shared" ref="I17" si="12">IFERROR(ROUND(MOD(B17+H17,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J17" s="132">
+      <c r="J17" s="130">
         <v>13</v>
       </c>
-      <c r="K17" s="131">
+      <c r="K17" s="129">
         <f t="shared" ref="K17" si="13">IFERROR(MOD(I17+J17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L17" s="132">
+      <c r="L17" s="130">
         <v>2</v>
       </c>
       <c r="M17" s="7"/>
-      <c r="N17" s="131">
+      <c r="N17" s="129">
         <f>IFERROR(MOD(K17+L17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="132">
+      <c r="O17" s="130">
         <v>10</v>
       </c>
       <c r="P17" s="94">
@@ -14976,23 +14976,23 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="135" t="s">
+      <c r="A18" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="132"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="132"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="130"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="132"/>
+      <c r="N18" s="129"/>
+      <c r="O18" s="130"/>
       <c r="P18" s="53"/>
       <c r="Q18" s="53"/>
       <c r="R18" s="54"/>
@@ -15000,49 +15000,49 @@
       <c r="T18" s="53"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="134"/>
-      <c r="B19" s="143">
+      <c r="A19" s="127"/>
+      <c r="B19" s="128">
         <v>131</v>
       </c>
-      <c r="C19" s="143">
+      <c r="C19" s="128">
         <v>3500</v>
       </c>
-      <c r="D19" s="143">
+      <c r="D19" s="128">
         <v>215</v>
       </c>
-      <c r="E19" s="143">
+      <c r="E19" s="128">
         <v>17</v>
       </c>
-      <c r="F19" s="143">
+      <c r="F19" s="128">
         <v>-10</v>
       </c>
-      <c r="G19" s="143">
+      <c r="G19" s="128">
         <v>95</v>
       </c>
-      <c r="H19" s="129">
+      <c r="H19" s="133">
         <f t="shared" ref="H19" si="15">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D19-B19))*(E19/G19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="I19" s="129">
+      <c r="I19" s="133">
         <f t="shared" ref="I19" si="16">IFERROR(ROUND(MOD(B19+H19,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="J19" s="130">
+      <c r="J19" s="135">
         <v>13</v>
       </c>
-      <c r="K19" s="129">
+      <c r="K19" s="133">
         <f t="shared" ref="K19" si="17">IFERROR(MOD(I19+J19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="L19" s="130">
+      <c r="L19" s="135">
         <v>2</v>
       </c>
       <c r="M19" s="7"/>
-      <c r="N19" s="129">
+      <c r="N19" s="133">
         <f>IFERROR(MOD(K19+L19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="130">
+      <c r="O19" s="135">
         <v>11</v>
       </c>
       <c r="P19" s="95">
@@ -15067,23 +15067,23 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="135" t="s">
+      <c r="A20" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="130"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="135"/>
       <c r="M20" s="7"/>
-      <c r="N20" s="129"/>
-      <c r="O20" s="130"/>
+      <c r="N20" s="133"/>
+      <c r="O20" s="135"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
@@ -15091,33 +15091,33 @@
       <c r="T20" s="44"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="134"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="131" t="str">
+      <c r="A21" s="127"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="129" t="str">
         <f t="shared" ref="H21" si="19">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D21-B21))*(E21/G21)))),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="131" t="str">
+      <c r="I21" s="129" t="str">
         <f t="shared" ref="I21" si="20">IFERROR(ROUND(MOD(B21+H21,360),0),"")</f>
         <v/>
       </c>
-      <c r="J21" s="132"/>
-      <c r="K21" s="131" t="str">
+      <c r="J21" s="130"/>
+      <c r="K21" s="129" t="str">
         <f t="shared" ref="K21" si="21">IFERROR(MOD(I21+J21,360),"")</f>
         <v/>
       </c>
-      <c r="L21" s="132"/>
+      <c r="L21" s="130"/>
       <c r="M21" s="7"/>
-      <c r="N21" s="131" t="str">
+      <c r="N21" s="129" t="str">
         <f>IFERROR(MOD(K21+L21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="132"/>
+      <c r="O21" s="130"/>
       <c r="P21" s="94" t="str">
         <f>IFERROR(SQRT(G21^2+E21^2-2*G21*E21*COS(RADIANS(D21-B21-H21))),"")</f>
         <v/>
@@ -15140,21 +15140,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="135"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="132"/>
+      <c r="A22" s="126"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="130"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="132"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="130"/>
       <c r="P22" s="53"/>
       <c r="Q22" s="53"/>
       <c r="R22" s="54"/>
@@ -15162,33 +15162,33 @@
       <c r="T22" s="53"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="134"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="129" t="str">
+      <c r="A23" s="127"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="133" t="str">
         <f t="shared" ref="H23" si="23">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D23-B23))*(E23/G23)))),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="129" t="str">
+      <c r="I23" s="133" t="str">
         <f t="shared" ref="I23" si="24">IFERROR(ROUND(MOD(B23+H23,360),0),"")</f>
         <v/>
       </c>
-      <c r="J23" s="130"/>
-      <c r="K23" s="131" t="str">
+      <c r="J23" s="135"/>
+      <c r="K23" s="129" t="str">
         <f t="shared" ref="K23" si="25">IFERROR(MOD(I23+J23,360),"")</f>
         <v/>
       </c>
-      <c r="L23" s="130"/>
+      <c r="L23" s="135"/>
       <c r="M23" s="7"/>
-      <c r="N23" s="131" t="str">
+      <c r="N23" s="129" t="str">
         <f>IFERROR(MOD(K23+L23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="130"/>
+      <c r="O23" s="135"/>
       <c r="P23" s="95" t="str">
         <f>IFERROR(SQRT(G23^2+E23^2-2*G23*E23*COS(RADIANS(D23-B23-H23))),"")</f>
         <v/>
@@ -15211,21 +15211,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="135"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="130"/>
+      <c r="A24" s="126"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="129"/>
+      <c r="L24" s="135"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="131"/>
-      <c r="O24" s="130"/>
+      <c r="N24" s="129"/>
+      <c r="O24" s="135"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
@@ -15233,33 +15233,33 @@
       <c r="T24" s="44"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="167"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="131" t="str">
+      <c r="A25" s="131"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="129" t="str">
         <f t="shared" ref="H25" si="27">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(D25-B25))*(E25/G25)))),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="131" t="str">
+      <c r="I25" s="129" t="str">
         <f t="shared" ref="I25" si="28">IFERROR(ROUND(MOD(B25+H25,360),0),"")</f>
         <v/>
       </c>
-      <c r="J25" s="132"/>
-      <c r="K25" s="131" t="str">
+      <c r="J25" s="130"/>
+      <c r="K25" s="129" t="str">
         <f t="shared" ref="K25" si="29">IFERROR(MOD(I25+J25,360),"")</f>
         <v/>
       </c>
-      <c r="L25" s="132"/>
+      <c r="L25" s="130"/>
       <c r="M25" s="7"/>
-      <c r="N25" s="131" t="str">
+      <c r="N25" s="129" t="str">
         <f>IFERROR(MOD(K25+L25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="132"/>
+      <c r="O25" s="130"/>
       <c r="P25" s="94" t="str">
         <f>IFERROR(SQRT(G25^2+E25^2-2*G25*E25*COS(RADIANS(D25-B25-H25))),"")</f>
         <v/>
@@ -15285,20 +15285,20 @@
       <c r="A26" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="145"/>
-      <c r="L26" s="144"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="132"/>
       <c r="M26" s="7"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="144"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="132"/>
       <c r="P26" s="53"/>
       <c r="Q26" s="55"/>
       <c r="R26" s="56"/>
@@ -15306,162 +15306,224 @@
       <c r="T26" s="53"/>
     </row>
     <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="161" t="s">
+      <c r="A27" s="120" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="162"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="162"/>
-      <c r="H27" s="162"/>
-      <c r="I27" s="162"/>
-      <c r="J27" s="162"/>
-      <c r="K27" s="162"/>
-      <c r="L27" s="163"/>
-      <c r="O27" s="155">
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="121"/>
+      <c r="K27" s="121"/>
+      <c r="L27" s="122"/>
+      <c r="O27" s="114">
         <f>SUM(O9:O26)</f>
         <v>55</v>
       </c>
-      <c r="Q27" s="157">
+      <c r="Q27" s="116">
         <f>SUM(Q9:Q26)</f>
         <v>35</v>
       </c>
-      <c r="R27" s="159">
+      <c r="R27" s="118">
         <f>MAX(R9:R26)</f>
         <v>0.60763888888888895</v>
       </c>
-      <c r="S27" s="157">
+      <c r="S27" s="116">
         <f>SUM(S9:S26)</f>
         <v>3.8</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="164"/>
-      <c r="B28" s="165"/>
-      <c r="C28" s="165"/>
-      <c r="D28" s="165"/>
-      <c r="E28" s="165"/>
-      <c r="F28" s="165"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="165"/>
-      <c r="I28" s="165"/>
-      <c r="J28" s="165"/>
-      <c r="K28" s="165"/>
-      <c r="L28" s="166"/>
-      <c r="O28" s="156"/>
-      <c r="Q28" s="158"/>
-      <c r="R28" s="160"/>
-      <c r="S28" s="158"/>
+      <c r="A28" s="123"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="125"/>
+      <c r="O28" s="115"/>
+      <c r="Q28" s="117"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="117"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A29" s="146" t="s">
+      <c r="A29" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="147"/>
-      <c r="L29" s="148"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="107"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A30" s="149"/>
-      <c r="B30" s="150"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="151"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="109"/>
+      <c r="E30" s="109"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="110"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A31" s="149"/>
-      <c r="B31" s="150"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="151"/>
+      <c r="A31" s="108"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="110"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A32" s="149"/>
-      <c r="B32" s="150"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="151"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="109"/>
+      <c r="K32" s="109"/>
+      <c r="L32" s="110"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="152"/>
-      <c r="B33" s="153"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="153"/>
-      <c r="K33" s="153"/>
-      <c r="L33" s="154"/>
+      <c r="A33" s="111"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="113"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="150">
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="A29:L33"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="O25:O26"/>
-    <mergeCell ref="A27:L28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="N17:N18"/>
@@ -15486,100 +15548,38 @@
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="F21:F22"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="P1:Q2"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="A29:L33"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="O25:O26"/>
+    <mergeCell ref="A27:L28"/>
+    <mergeCell ref="O27:O28"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -15611,122 +15611,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="173"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="178"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="177" t="s">
+      <c r="G1" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
       <c r="L1" s="24"/>
-      <c r="M1" s="178" t="s">
+      <c r="M1" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="180"/>
-      <c r="O1" s="180"/>
-      <c r="P1" s="186" t="s">
+      <c r="N1" s="184"/>
+      <c r="O1" s="184"/>
+      <c r="P1" s="168" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="175"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="180"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
       <c r="L2" s="24"/>
-      <c r="M2" s="179"/>
-      <c r="N2" s="176"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="187"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="169"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G3" s="177" t="s">
+      <c r="G3" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
       <c r="L3" s="25"/>
-      <c r="M3" s="181" t="s">
+      <c r="M3" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="176"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="188" t="s">
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="176"/>
-      <c r="S3" s="186" t="s">
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="168" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="176"/>
-      <c r="K4" s="176"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="172"/>
+      <c r="K4" s="172"/>
       <c r="L4" s="25"/>
-      <c r="M4" s="182"/>
-      <c r="N4" s="183"/>
-      <c r="O4" s="183"/>
-      <c r="P4" s="189"/>
-      <c r="Q4" s="176"/>
-      <c r="R4" s="176"/>
-      <c r="S4" s="187"/>
+      <c r="M4" s="186"/>
+      <c r="N4" s="187"/>
+      <c r="O4" s="187"/>
+      <c r="P4" s="171"/>
+      <c r="Q4" s="172"/>
+      <c r="R4" s="172"/>
+      <c r="S4" s="169"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="138" t="s">
+      <c r="A6" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="140"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="147"/>
       <c r="L6" s="26"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="138" t="s">
+      <c r="N6" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="139"/>
-      <c r="S6" s="139"/>
-      <c r="T6" s="140"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="147"/>
     </row>
     <row r="7" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="184" t="s">
+      <c r="C7" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="185"/>
+      <c r="D7" s="189"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -15789,7 +15789,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="28"/>
-      <c r="M8" s="133"/>
+      <c r="M8" s="142"/>
       <c r="N8" s="32" t="s">
         <v>8</v>
       </c>
@@ -15813,33 +15813,33 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="132"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="131" t="str">
+      <c r="A9" s="130"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="129" t="str">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C9-A9))*(D9/F9)))),0),"")</f>
         <v/>
       </c>
-      <c r="H9" s="131" t="str">
+      <c r="H9" s="129" t="str">
         <f>IFERROR(ROUND(MOD(A9+G9,360),0),"")</f>
         <v/>
       </c>
-      <c r="I9" s="132"/>
-      <c r="J9" s="131" t="str">
+      <c r="I9" s="130"/>
+      <c r="J9" s="129" t="str">
         <f>IFERROR(MOD(H9+I9,360),"")</f>
         <v/>
       </c>
-      <c r="K9" s="132"/>
+      <c r="K9" s="130"/>
       <c r="L9" s="29"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="131" t="str">
+      <c r="M9" s="127"/>
+      <c r="N9" s="129" t="str">
         <f>IFERROR(MOD(J9+K9,360),"")</f>
         <v/>
       </c>
-      <c r="O9" s="132"/>
+      <c r="O9" s="130"/>
       <c r="P9" s="42" t="str">
         <f>IFERROR(SQRT(F9^2+D9^2-2*F9*D9*COS(RADIANS(C9-A9-G9))),"")</f>
         <v/>
@@ -15862,21 +15862,21 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="132"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="132"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="130"/>
       <c r="L10" s="29"/>
-      <c r="M10" s="135"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="132"/>
+      <c r="M10" s="126"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="130"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="45"/>
@@ -15884,33 +15884,33 @@
       <c r="T10" s="44"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="129" t="str">
+      <c r="A11" s="135"/>
+      <c r="B11" s="135"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="133" t="str">
         <f t="shared" ref="G11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C11-A11))*(D11/F11)))),0),"")</f>
         <v/>
       </c>
-      <c r="H11" s="129" t="str">
+      <c r="H11" s="133" t="str">
         <f t="shared" ref="H11" si="1">IFERROR(ROUND(MOD(A11+G11,360),0),"")</f>
         <v/>
       </c>
-      <c r="I11" s="130"/>
-      <c r="J11" s="129" t="str">
+      <c r="I11" s="135"/>
+      <c r="J11" s="133" t="str">
         <f t="shared" ref="J11" si="2">IFERROR(MOD(H11+I11,360),"")</f>
         <v/>
       </c>
-      <c r="K11" s="130"/>
+      <c r="K11" s="135"/>
       <c r="L11" s="29"/>
-      <c r="M11" s="134"/>
-      <c r="N11" s="129" t="str">
+      <c r="M11" s="127"/>
+      <c r="N11" s="133" t="str">
         <f>IFERROR(MOD(J11+K11,360),"")</f>
         <v/>
       </c>
-      <c r="O11" s="130"/>
+      <c r="O11" s="135"/>
       <c r="P11" s="46" t="str">
         <f>IFERROR(SQRT(F11^2+D11^2-2*F11*D11*COS(RADIANS(C11-A11-G11))),"")</f>
         <v/>
@@ -15933,21 +15933,21 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="130"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="130"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="135"/>
       <c r="L12" s="29"/>
-      <c r="M12" s="135"/>
-      <c r="N12" s="129"/>
-      <c r="O12" s="130"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="135"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
@@ -15955,33 +15955,33 @@
       <c r="T12" s="44"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="132"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="131" t="str">
+      <c r="A13" s="130"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="129" t="str">
         <f t="shared" ref="G13" si="4">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C13-A13))*(D13/F13)))),0),"")</f>
         <v/>
       </c>
-      <c r="H13" s="131" t="str">
+      <c r="H13" s="129" t="str">
         <f t="shared" ref="H13" si="5">IFERROR(ROUND(MOD(A13+G13,360),0),"")</f>
         <v/>
       </c>
-      <c r="I13" s="132"/>
-      <c r="J13" s="131" t="str">
+      <c r="I13" s="130"/>
+      <c r="J13" s="129" t="str">
         <f t="shared" ref="J13" si="6">IFERROR(MOD(H13+I13,360),"")</f>
         <v/>
       </c>
-      <c r="K13" s="132"/>
+      <c r="K13" s="130"/>
       <c r="L13" s="29"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="131" t="str">
+      <c r="M13" s="127"/>
+      <c r="N13" s="129" t="str">
         <f>IFERROR(MOD(J13+K13,360),"")</f>
         <v/>
       </c>
-      <c r="O13" s="132"/>
+      <c r="O13" s="130"/>
       <c r="P13" s="42" t="str">
         <f>IFERROR(SQRT(F13^2+D13^2-2*F13*D13*COS(RADIANS(C13-A13-G13))),"")</f>
         <v/>
@@ -16004,21 +16004,21 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="132"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="132"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="130"/>
       <c r="L14" s="29"/>
-      <c r="M14" s="135"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="132"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="130"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="45"/>
@@ -16026,33 +16026,33 @@
       <c r="T14" s="44"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="143"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="129" t="str">
+      <c r="A15" s="128"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="133" t="str">
         <f t="shared" ref="G15" si="8">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C15-A15))*(D15/F15)))),0),"")</f>
         <v/>
       </c>
-      <c r="H15" s="129" t="str">
+      <c r="H15" s="133" t="str">
         <f t="shared" ref="H15" si="9">IFERROR(ROUND(MOD(A15+G15,360),0),"")</f>
         <v/>
       </c>
-      <c r="I15" s="130"/>
-      <c r="J15" s="129" t="str">
+      <c r="I15" s="135"/>
+      <c r="J15" s="133" t="str">
         <f t="shared" ref="J15" si="10">IFERROR(MOD(H15+I15,360),"")</f>
         <v/>
       </c>
-      <c r="K15" s="130"/>
+      <c r="K15" s="135"/>
       <c r="L15" s="29"/>
-      <c r="M15" s="134"/>
-      <c r="N15" s="129" t="str">
+      <c r="M15" s="127"/>
+      <c r="N15" s="133" t="str">
         <f>IFERROR(MOD(J15+K15,360),"")</f>
         <v/>
       </c>
-      <c r="O15" s="130"/>
+      <c r="O15" s="135"/>
       <c r="P15" s="46" t="str">
         <f>IFERROR(SQRT(F15^2+D15^2-2*F15*D15*COS(RADIANS(C15-A15-G15))),"")</f>
         <v/>
@@ -16075,21 +16075,21 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="143"/>
-      <c r="B16" s="143"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="130"/>
+      <c r="A16" s="128"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="135"/>
       <c r="L16" s="29"/>
-      <c r="M16" s="135"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="130"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="135"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
@@ -16097,33 +16097,33 @@
       <c r="T16" s="44"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="132"/>
-      <c r="B17" s="132"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="131" t="str">
+      <c r="A17" s="130"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="129" t="str">
         <f t="shared" ref="G17" si="12">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C17-A17))*(D17/F17)))),0),"")</f>
         <v/>
       </c>
-      <c r="H17" s="131" t="str">
+      <c r="H17" s="129" t="str">
         <f t="shared" ref="H17" si="13">IFERROR(ROUND(MOD(A17+G17,360),0),"")</f>
         <v/>
       </c>
-      <c r="I17" s="132"/>
-      <c r="J17" s="131" t="str">
+      <c r="I17" s="130"/>
+      <c r="J17" s="129" t="str">
         <f t="shared" ref="J17" si="14">IFERROR(MOD(H17+I17,360),"")</f>
         <v/>
       </c>
-      <c r="K17" s="132"/>
+      <c r="K17" s="130"/>
       <c r="L17" s="29"/>
-      <c r="M17" s="134"/>
-      <c r="N17" s="131" t="str">
+      <c r="M17" s="127"/>
+      <c r="N17" s="129" t="str">
         <f>IFERROR(MOD(J17+K17,360),"")</f>
         <v/>
       </c>
-      <c r="O17" s="132"/>
+      <c r="O17" s="130"/>
       <c r="P17" s="42" t="str">
         <f>IFERROR(SQRT(F17^2+D17^2-2*F17*D17*COS(RADIANS(C17-A17-G17))),"")</f>
         <v/>
@@ -16146,21 +16146,21 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="132"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="132"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="130"/>
       <c r="L18" s="29"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="132"/>
+      <c r="M18" s="126"/>
+      <c r="N18" s="129"/>
+      <c r="O18" s="130"/>
       <c r="P18" s="44"/>
       <c r="Q18" s="44"/>
       <c r="R18" s="45"/>
@@ -16168,33 +16168,33 @@
       <c r="T18" s="44"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="143"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="129" t="str">
+      <c r="A19" s="128"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="133" t="str">
         <f t="shared" ref="G19" si="16">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C19-A19))*(D19/F19)))),0),"")</f>
         <v/>
       </c>
-      <c r="H19" s="129" t="str">
+      <c r="H19" s="133" t="str">
         <f t="shared" ref="H19" si="17">IFERROR(ROUND(MOD(A19+G19,360),0),"")</f>
         <v/>
       </c>
-      <c r="I19" s="130"/>
-      <c r="J19" s="129" t="str">
+      <c r="I19" s="135"/>
+      <c r="J19" s="133" t="str">
         <f t="shared" ref="J19" si="18">IFERROR(MOD(H19+I19,360),"")</f>
         <v/>
       </c>
-      <c r="K19" s="130"/>
+      <c r="K19" s="135"/>
       <c r="L19" s="29"/>
-      <c r="M19" s="134"/>
-      <c r="N19" s="129" t="str">
+      <c r="M19" s="127"/>
+      <c r="N19" s="133" t="str">
         <f>IFERROR(MOD(J19+K19,360),"")</f>
         <v/>
       </c>
-      <c r="O19" s="130"/>
+      <c r="O19" s="135"/>
       <c r="P19" s="46" t="str">
         <f>IFERROR(SQRT(F19^2+D19^2-2*F19*D19*COS(RADIANS(C19-A19-G19))),"")</f>
         <v/>
@@ -16217,21 +16217,21 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="143"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="130"/>
+      <c r="A20" s="128"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="135"/>
       <c r="L20" s="29"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="129"/>
-      <c r="O20" s="130"/>
+      <c r="M20" s="126"/>
+      <c r="N20" s="133"/>
+      <c r="O20" s="135"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
@@ -16239,33 +16239,33 @@
       <c r="T20" s="44"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="132"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="131" t="str">
+      <c r="A21" s="130"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="129" t="str">
         <f t="shared" ref="G21" si="20">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C21-A21))*(D21/F21)))),0),"")</f>
         <v/>
       </c>
-      <c r="H21" s="131" t="str">
+      <c r="H21" s="129" t="str">
         <f t="shared" ref="H21" si="21">IFERROR(ROUND(MOD(A21+G21,360),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="132"/>
-      <c r="J21" s="131" t="str">
+      <c r="I21" s="130"/>
+      <c r="J21" s="129" t="str">
         <f t="shared" ref="J21" si="22">IFERROR(MOD(H21+I21,360),"")</f>
         <v/>
       </c>
-      <c r="K21" s="132"/>
+      <c r="K21" s="130"/>
       <c r="L21" s="29"/>
-      <c r="M21" s="134"/>
-      <c r="N21" s="131" t="str">
+      <c r="M21" s="127"/>
+      <c r="N21" s="129" t="str">
         <f>IFERROR(MOD(J21+K21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="132"/>
+      <c r="O21" s="130"/>
       <c r="P21" s="42" t="str">
         <f>IFERROR(SQRT(F21^2+D21^2-2*F21*D21*COS(RADIANS(C21-A21-G21))),"")</f>
         <v/>
@@ -16288,21 +16288,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="132"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="132"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="130"/>
       <c r="L22" s="29"/>
-      <c r="M22" s="135"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="132"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="130"/>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
       <c r="R22" s="45"/>
@@ -16310,33 +16310,33 @@
       <c r="T22" s="44"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="143"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="129" t="str">
+      <c r="A23" s="128"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="133" t="str">
         <f t="shared" ref="G23" si="24">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C23-A23))*(D23/F23)))),0),"")</f>
         <v/>
       </c>
-      <c r="H23" s="129" t="str">
+      <c r="H23" s="133" t="str">
         <f t="shared" ref="H23" si="25">IFERROR(ROUND(MOD(A23+G23,360),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="130"/>
-      <c r="J23" s="129" t="str">
+      <c r="I23" s="135"/>
+      <c r="J23" s="133" t="str">
         <f t="shared" ref="J23" si="26">IFERROR(MOD(H23+I23,360),"")</f>
         <v/>
       </c>
-      <c r="K23" s="130"/>
+      <c r="K23" s="135"/>
       <c r="L23" s="29"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="129" t="str">
+      <c r="M23" s="127"/>
+      <c r="N23" s="133" t="str">
         <f>IFERROR(MOD(J23+K23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="130"/>
+      <c r="O23" s="135"/>
       <c r="P23" s="46" t="str">
         <f>IFERROR(SQRT(F23^2+D23^2-2*F23*D23*COS(RADIANS(C23-A23-G23))),"")</f>
         <v/>
@@ -16359,21 +16359,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="143"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="130"/>
+      <c r="A24" s="128"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="135"/>
       <c r="L24" s="29"/>
-      <c r="M24" s="135"/>
-      <c r="N24" s="129"/>
-      <c r="O24" s="130"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="133"/>
+      <c r="O24" s="135"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
@@ -16381,33 +16381,33 @@
       <c r="T24" s="44"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="132"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="131" t="str">
+      <c r="A25" s="130"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="129" t="str">
         <f t="shared" ref="G25" si="28">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C25-A25))*(D25/F25)))),0),"")</f>
         <v/>
       </c>
-      <c r="H25" s="131" t="str">
+      <c r="H25" s="129" t="str">
         <f t="shared" ref="H25" si="29">IFERROR(ROUND(MOD(A25+G25,360),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="132"/>
-      <c r="J25" s="131" t="str">
+      <c r="I25" s="130"/>
+      <c r="J25" s="129" t="str">
         <f t="shared" ref="J25" si="30">IFERROR(MOD(H25+I25,360),"")</f>
         <v/>
       </c>
-      <c r="K25" s="132"/>
+      <c r="K25" s="130"/>
       <c r="L25" s="29"/>
-      <c r="M25" s="167"/>
-      <c r="N25" s="131" t="str">
+      <c r="M25" s="131"/>
+      <c r="N25" s="129" t="str">
         <f>IFERROR(MOD(J25+K25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="132"/>
+      <c r="O25" s="130"/>
       <c r="P25" s="42" t="str">
         <f>IFERROR(SQRT(F25^2+D25^2-2*F25*D25*COS(RADIANS(C25-A25-G25))),"")</f>
         <v/>
@@ -16430,23 +16430,23 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="132"/>
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="132"/>
+      <c r="A26" s="130"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="130"/>
       <c r="L26" s="29"/>
       <c r="M26" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="131"/>
-      <c r="O26" s="132"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="130"/>
       <c r="P26" s="44"/>
       <c r="Q26" s="44"/>
       <c r="R26" s="45"/>
@@ -16454,19 +16454,19 @@
       <c r="T26" s="44"/>
     </row>
     <row r="27" spans="1:20" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="149" t="s">
+      <c r="A27" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="150"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="151"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="110"/>
       <c r="L27" s="30"/>
       <c r="M27" s="31" t="s">
         <v>67</v>
@@ -16489,23 +16489,143 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="152"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="154"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="113"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="144">
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="O11:O12"/>
@@ -16530,126 +16650,6 @@
     <mergeCell ref="Q3:R4"/>
     <mergeCell ref="A6:K6"/>
     <mergeCell ref="N6:T6"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:O2"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -16681,134 +16681,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="172">
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="177">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E1" s="173"/>
+      <c r="E1" s="178"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="177" t="s">
+      <c r="G1" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="176">
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="172">
         <v>38</v>
       </c>
-      <c r="K1" s="176"/>
+      <c r="K1" s="172"/>
       <c r="L1" s="24"/>
-      <c r="M1" s="178" t="s">
+      <c r="M1" s="182" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="180">
+      <c r="N1" s="184">
         <v>3500</v>
       </c>
-      <c r="O1" s="180"/>
-      <c r="P1" s="186" t="s">
+      <c r="O1" s="184"/>
+      <c r="P1" s="168" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="175"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="180"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
       <c r="L2" s="24"/>
-      <c r="M2" s="179"/>
-      <c r="N2" s="176"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="187"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="169"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G3" s="177" t="s">
+      <c r="G3" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="176">
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="172">
         <v>6.5</v>
       </c>
-      <c r="K3" s="176"/>
+      <c r="K3" s="172"/>
       <c r="L3" s="25"/>
-      <c r="M3" s="181" t="s">
+      <c r="M3" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="176">
+      <c r="N3" s="172">
         <v>215</v>
       </c>
-      <c r="O3" s="176"/>
-      <c r="P3" s="188" t="s">
+      <c r="O3" s="172"/>
+      <c r="P3" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="176">
+      <c r="Q3" s="172">
         <v>17</v>
       </c>
-      <c r="R3" s="176"/>
-      <c r="S3" s="186" t="s">
+      <c r="R3" s="172"/>
+      <c r="S3" s="168" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="176"/>
-      <c r="K4" s="176"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="172"/>
+      <c r="K4" s="172"/>
       <c r="L4" s="25"/>
-      <c r="M4" s="182"/>
-      <c r="N4" s="183"/>
-      <c r="O4" s="183"/>
-      <c r="P4" s="189"/>
-      <c r="Q4" s="176"/>
-      <c r="R4" s="176"/>
-      <c r="S4" s="187"/>
+      <c r="M4" s="186"/>
+      <c r="N4" s="187"/>
+      <c r="O4" s="187"/>
+      <c r="P4" s="171"/>
+      <c r="Q4" s="172"/>
+      <c r="R4" s="172"/>
+      <c r="S4" s="169"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L5" s="24"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="138" t="s">
+      <c r="A6" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-      <c r="K6" s="140"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="147"/>
       <c r="L6" s="26"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="138" t="s">
+      <c r="N6" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="139"/>
-      <c r="R6" s="139"/>
-      <c r="S6" s="139"/>
-      <c r="T6" s="140"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="147"/>
     </row>
     <row r="7" spans="1:20" ht="19.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="184" t="s">
+      <c r="C7" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="185"/>
+      <c r="D7" s="189"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -16871,7 +16871,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="28"/>
-      <c r="M8" s="133" t="s">
+      <c r="M8" s="142" t="s">
         <v>10</v>
       </c>
       <c r="N8" s="32" t="s">
@@ -16897,49 +16897,49 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="132">
+      <c r="A9" s="130">
         <v>90</v>
       </c>
-      <c r="B9" s="132">
+      <c r="B9" s="130">
         <v>3500</v>
       </c>
-      <c r="C9" s="132">
+      <c r="C9" s="130">
         <v>170</v>
       </c>
-      <c r="D9" s="132">
+      <c r="D9" s="130">
         <v>17</v>
       </c>
-      <c r="E9" s="132">
+      <c r="E9" s="130">
         <v>-10</v>
       </c>
-      <c r="F9" s="132">
+      <c r="F9" s="130">
         <v>95</v>
       </c>
-      <c r="G9" s="131">
+      <c r="G9" s="129">
         <f>IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C9-A9))*(D9/F9)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H9" s="131">
+      <c r="H9" s="129">
         <f>IFERROR(ROUND(MOD(A9+G9,360),0),"")</f>
         <v>100</v>
       </c>
-      <c r="I9" s="132">
+      <c r="I9" s="130">
         <v>13</v>
       </c>
-      <c r="J9" s="131">
+      <c r="J9" s="129">
         <f>IFERROR(MOD(H9+I9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="K9" s="132">
+      <c r="K9" s="130">
         <v>0</v>
       </c>
       <c r="L9" s="29"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="131">
+      <c r="M9" s="127"/>
+      <c r="N9" s="129">
         <f>IFERROR(MOD(J9+K9,360),"")</f>
         <v>113</v>
       </c>
-      <c r="O9" s="132">
+      <c r="O9" s="130">
         <v>7</v>
       </c>
       <c r="P9" s="94">
@@ -16964,23 +16964,23 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="132"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="132"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="130"/>
       <c r="L10" s="29"/>
-      <c r="M10" s="135" t="s">
+      <c r="M10" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="131"/>
-      <c r="O10" s="132"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="130"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
       <c r="R10" s="45"/>
@@ -16988,49 +16988,49 @@
       <c r="T10" s="44"/>
     </row>
     <row r="11" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="130">
+      <c r="A11" s="135">
         <v>90</v>
       </c>
-      <c r="B11" s="130">
+      <c r="B11" s="135">
         <v>3500</v>
       </c>
-      <c r="C11" s="130">
+      <c r="C11" s="135">
         <v>215</v>
       </c>
-      <c r="D11" s="130">
+      <c r="D11" s="135">
         <v>17</v>
       </c>
-      <c r="E11" s="130">
+      <c r="E11" s="135">
         <v>-10</v>
       </c>
-      <c r="F11" s="130">
+      <c r="F11" s="135">
         <v>95</v>
       </c>
-      <c r="G11" s="129">
+      <c r="G11" s="133">
         <f t="shared" ref="G11" si="0">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C11-A11))*(D11/F11)))),0),"")</f>
         <v>8</v>
       </c>
-      <c r="H11" s="129">
+      <c r="H11" s="133">
         <f t="shared" ref="H11" si="1">IFERROR(ROUND(MOD(A11+G11,360),0),"")</f>
         <v>98</v>
       </c>
-      <c r="I11" s="130">
+      <c r="I11" s="135">
         <v>13</v>
       </c>
-      <c r="J11" s="129">
+      <c r="J11" s="133">
         <f t="shared" ref="J11" si="2">IFERROR(MOD(H11+I11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="K11" s="130">
+      <c r="K11" s="135">
         <v>0</v>
       </c>
       <c r="L11" s="29"/>
-      <c r="M11" s="134"/>
-      <c r="N11" s="129">
+      <c r="M11" s="127"/>
+      <c r="N11" s="133">
         <f>IFERROR(MOD(J11+K11,360),"")</f>
         <v>111</v>
       </c>
-      <c r="O11" s="130">
+      <c r="O11" s="135">
         <v>8</v>
       </c>
       <c r="P11" s="95">
@@ -17055,23 +17055,23 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="130"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="130"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="135"/>
       <c r="L12" s="29"/>
-      <c r="M12" s="135" t="s">
+      <c r="M12" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="N12" s="129"/>
-      <c r="O12" s="130"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="135"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
       <c r="R12" s="45"/>
@@ -17079,49 +17079,49 @@
       <c r="T12" s="44"/>
     </row>
     <row r="13" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="132">
+      <c r="A13" s="130">
         <v>131</v>
       </c>
-      <c r="B13" s="132">
+      <c r="B13" s="130">
         <v>3500</v>
       </c>
-      <c r="C13" s="132">
+      <c r="C13" s="130">
         <v>215</v>
       </c>
-      <c r="D13" s="132">
+      <c r="D13" s="130">
         <v>17</v>
       </c>
-      <c r="E13" s="132">
+      <c r="E13" s="130">
         <v>-10</v>
       </c>
-      <c r="F13" s="132">
+      <c r="F13" s="130">
         <v>95</v>
       </c>
-      <c r="G13" s="131">
+      <c r="G13" s="129">
         <f t="shared" ref="G13" si="4">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C13-A13))*(D13/F13)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H13" s="131">
+      <c r="H13" s="129">
         <f t="shared" ref="H13" si="5">IFERROR(ROUND(MOD(A13+G13,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I13" s="132">
+      <c r="I13" s="130">
         <v>13</v>
       </c>
-      <c r="J13" s="131">
+      <c r="J13" s="129">
         <f t="shared" ref="J13" si="6">IFERROR(MOD(H13+I13,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K13" s="132">
+      <c r="K13" s="130">
         <v>2</v>
       </c>
       <c r="L13" s="29"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="131">
+      <c r="M13" s="127"/>
+      <c r="N13" s="129">
         <f>IFERROR(MOD(J13+K13,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O13" s="132">
+      <c r="O13" s="130">
         <v>11</v>
       </c>
       <c r="P13" s="94">
@@ -17146,23 +17146,23 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="132"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="132"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="130"/>
       <c r="L14" s="29"/>
-      <c r="M14" s="135" t="s">
+      <c r="M14" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="131"/>
-      <c r="O14" s="132"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="130"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
       <c r="R14" s="45"/>
@@ -17170,49 +17170,49 @@
       <c r="T14" s="44"/>
     </row>
     <row r="15" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="143">
+      <c r="A15" s="128">
         <v>131</v>
       </c>
-      <c r="B15" s="143">
+      <c r="B15" s="128">
         <v>3500</v>
       </c>
-      <c r="C15" s="143">
+      <c r="C15" s="128">
         <v>215</v>
       </c>
-      <c r="D15" s="143">
+      <c r="D15" s="128">
         <v>17</v>
       </c>
-      <c r="E15" s="143">
+      <c r="E15" s="128">
         <v>-10</v>
       </c>
-      <c r="F15" s="143">
+      <c r="F15" s="128">
         <v>95</v>
       </c>
-      <c r="G15" s="129">
+      <c r="G15" s="133">
         <f t="shared" ref="G15" si="8">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C15-A15))*(D15/F15)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H15" s="129">
+      <c r="H15" s="133">
         <f t="shared" ref="H15" si="9">IFERROR(ROUND(MOD(A15+G15,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I15" s="130">
+      <c r="I15" s="135">
         <v>13</v>
       </c>
-      <c r="J15" s="129">
+      <c r="J15" s="133">
         <f t="shared" ref="J15" si="10">IFERROR(MOD(H15+I15,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K15" s="130">
+      <c r="K15" s="135">
         <v>2</v>
       </c>
       <c r="L15" s="29"/>
-      <c r="M15" s="134"/>
-      <c r="N15" s="129">
+      <c r="M15" s="127"/>
+      <c r="N15" s="133">
         <f>IFERROR(MOD(J15+K15,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O15" s="130">
+      <c r="O15" s="135">
         <v>8</v>
       </c>
       <c r="P15" s="95">
@@ -17237,23 +17237,23 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="143"/>
-      <c r="B16" s="143"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="130"/>
+      <c r="A16" s="128"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="135"/>
       <c r="L16" s="29"/>
-      <c r="M16" s="135" t="s">
+      <c r="M16" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="N16" s="129"/>
-      <c r="O16" s="130"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="135"/>
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
       <c r="R16" s="45"/>
@@ -17261,49 +17261,49 @@
       <c r="T16" s="44"/>
     </row>
     <row r="17" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="132">
+      <c r="A17" s="130">
         <v>131</v>
       </c>
-      <c r="B17" s="132">
+      <c r="B17" s="130">
         <v>3500</v>
       </c>
-      <c r="C17" s="132">
+      <c r="C17" s="130">
         <v>215</v>
       </c>
-      <c r="D17" s="132">
+      <c r="D17" s="130">
         <v>17</v>
       </c>
-      <c r="E17" s="132">
+      <c r="E17" s="130">
         <v>-10</v>
       </c>
-      <c r="F17" s="132">
+      <c r="F17" s="130">
         <v>95</v>
       </c>
-      <c r="G17" s="131">
+      <c r="G17" s="129">
         <f t="shared" ref="G17" si="12">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C17-A17))*(D17/F17)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H17" s="131">
+      <c r="H17" s="129">
         <f t="shared" ref="H17" si="13">IFERROR(ROUND(MOD(A17+G17,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I17" s="132">
+      <c r="I17" s="130">
         <v>13</v>
       </c>
-      <c r="J17" s="131">
+      <c r="J17" s="129">
         <f t="shared" ref="J17" si="14">IFERROR(MOD(H17+I17,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K17" s="132">
+      <c r="K17" s="130">
         <v>2</v>
       </c>
       <c r="L17" s="29"/>
-      <c r="M17" s="134"/>
-      <c r="N17" s="131">
+      <c r="M17" s="127"/>
+      <c r="N17" s="129">
         <f>IFERROR(MOD(J17+K17,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O17" s="132">
+      <c r="O17" s="130">
         <v>10</v>
       </c>
       <c r="P17" s="94">
@@ -17328,23 +17328,23 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="132"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="132"/>
+      <c r="A18" s="130"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="129"/>
+      <c r="K18" s="130"/>
       <c r="L18" s="29"/>
-      <c r="M18" s="135" t="s">
+      <c r="M18" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="131"/>
-      <c r="O18" s="132"/>
+      <c r="N18" s="129"/>
+      <c r="O18" s="130"/>
       <c r="P18" s="44"/>
       <c r="Q18" s="44"/>
       <c r="R18" s="45"/>
@@ -17352,49 +17352,49 @@
       <c r="T18" s="44"/>
     </row>
     <row r="19" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="143">
+      <c r="A19" s="128">
         <v>131</v>
       </c>
-      <c r="B19" s="143">
+      <c r="B19" s="128">
         <v>3500</v>
       </c>
-      <c r="C19" s="143">
+      <c r="C19" s="128">
         <v>215</v>
       </c>
-      <c r="D19" s="143">
+      <c r="D19" s="128">
         <v>17</v>
       </c>
-      <c r="E19" s="143">
+      <c r="E19" s="128">
         <v>-10</v>
       </c>
-      <c r="F19" s="143">
+      <c r="F19" s="128">
         <v>95</v>
       </c>
-      <c r="G19" s="129">
+      <c r="G19" s="133">
         <f t="shared" ref="G19" si="16">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C19-A19))*(D19/F19)))),0),"")</f>
         <v>10</v>
       </c>
-      <c r="H19" s="129">
+      <c r="H19" s="133">
         <f t="shared" ref="H19" si="17">IFERROR(ROUND(MOD(A19+G19,360),0),"")</f>
         <v>141</v>
       </c>
-      <c r="I19" s="130">
+      <c r="I19" s="135">
         <v>13</v>
       </c>
-      <c r="J19" s="129">
+      <c r="J19" s="133">
         <f t="shared" ref="J19" si="18">IFERROR(MOD(H19+I19,360),"")</f>
         <v>154</v>
       </c>
-      <c r="K19" s="130">
+      <c r="K19" s="135">
         <v>2</v>
       </c>
       <c r="L19" s="29"/>
-      <c r="M19" s="134"/>
-      <c r="N19" s="129">
+      <c r="M19" s="127"/>
+      <c r="N19" s="133">
         <f>IFERROR(MOD(J19+K19,360),"")</f>
         <v>156</v>
       </c>
-      <c r="O19" s="130">
+      <c r="O19" s="135">
         <v>11</v>
       </c>
       <c r="P19" s="95">
@@ -17419,23 +17419,23 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="143"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="130"/>
+      <c r="A20" s="128"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="135"/>
       <c r="L20" s="29"/>
-      <c r="M20" s="135" t="s">
+      <c r="M20" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="129"/>
-      <c r="O20" s="130"/>
+      <c r="N20" s="133"/>
+      <c r="O20" s="135"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
       <c r="R20" s="45"/>
@@ -17443,33 +17443,33 @@
       <c r="T20" s="44"/>
     </row>
     <row r="21" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="132"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="131" t="str">
+      <c r="A21" s="130"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="129" t="str">
         <f t="shared" ref="G21" si="20">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C21-A21))*(D21/F21)))),0),"")</f>
         <v/>
       </c>
-      <c r="H21" s="131" t="str">
+      <c r="H21" s="129" t="str">
         <f t="shared" ref="H21" si="21">IFERROR(ROUND(MOD(A21+G21,360),0),"")</f>
         <v/>
       </c>
-      <c r="I21" s="132"/>
-      <c r="J21" s="131" t="str">
+      <c r="I21" s="130"/>
+      <c r="J21" s="129" t="str">
         <f t="shared" ref="J21" si="22">IFERROR(MOD(H21+I21,360),"")</f>
         <v/>
       </c>
-      <c r="K21" s="132"/>
+      <c r="K21" s="130"/>
       <c r="L21" s="29"/>
-      <c r="M21" s="134"/>
-      <c r="N21" s="131" t="str">
+      <c r="M21" s="127"/>
+      <c r="N21" s="129" t="str">
         <f>IFERROR(MOD(J21+K21,360),"")</f>
         <v/>
       </c>
-      <c r="O21" s="132"/>
+      <c r="O21" s="130"/>
       <c r="P21" s="94" t="str">
         <f>IFERROR(SQRT(F21^2+D21^2-2*F21*D21*COS(RADIANS(C21-A21-G21))),"")</f>
         <v/>
@@ -17492,21 +17492,21 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="132"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="132"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="130"/>
       <c r="L22" s="29"/>
-      <c r="M22" s="135"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="132"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="130"/>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
       <c r="R22" s="45"/>
@@ -17514,33 +17514,33 @@
       <c r="T22" s="44"/>
     </row>
     <row r="23" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="143"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="129" t="str">
+      <c r="A23" s="128"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="133" t="str">
         <f t="shared" ref="G23" si="24">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C23-A23))*(D23/F23)))),0),"")</f>
         <v/>
       </c>
-      <c r="H23" s="129" t="str">
+      <c r="H23" s="133" t="str">
         <f t="shared" ref="H23" si="25">IFERROR(ROUND(MOD(A23+G23,360),0),"")</f>
         <v/>
       </c>
-      <c r="I23" s="130"/>
-      <c r="J23" s="129" t="str">
+      <c r="I23" s="135"/>
+      <c r="J23" s="133" t="str">
         <f t="shared" ref="J23" si="26">IFERROR(MOD(H23+I23,360),"")</f>
         <v/>
       </c>
-      <c r="K23" s="130"/>
+      <c r="K23" s="135"/>
       <c r="L23" s="29"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="129" t="str">
+      <c r="M23" s="127"/>
+      <c r="N23" s="133" t="str">
         <f>IFERROR(MOD(J23+K23,360),"")</f>
         <v/>
       </c>
-      <c r="O23" s="130"/>
+      <c r="O23" s="135"/>
       <c r="P23" s="95" t="str">
         <f>IFERROR(SQRT(F23^2+D23^2-2*F23*D23*COS(RADIANS(C23-A23-G23))),"")</f>
         <v/>
@@ -17563,21 +17563,21 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="143"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="130"/>
+      <c r="A24" s="128"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="135"/>
       <c r="L24" s="29"/>
-      <c r="M24" s="135"/>
-      <c r="N24" s="129"/>
-      <c r="O24" s="130"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="133"/>
+      <c r="O24" s="135"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="44"/>
       <c r="R24" s="45"/>
@@ -17585,33 +17585,33 @@
       <c r="T24" s="44"/>
     </row>
     <row r="25" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="132"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="131" t="str">
+      <c r="A25" s="130"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="129" t="str">
         <f t="shared" ref="G25" si="28">IFERROR(ROUND(DEGREES(ASIN((SIN(RADIANS(C25-A25))*(D25/F25)))),0),"")</f>
         <v/>
       </c>
-      <c r="H25" s="131" t="str">
+      <c r="H25" s="129" t="str">
         <f t="shared" ref="H25" si="29">IFERROR(ROUND(MOD(A25+G25,360),0),"")</f>
         <v/>
       </c>
-      <c r="I25" s="132"/>
-      <c r="J25" s="131" t="str">
+      <c r="I25" s="130"/>
+      <c r="J25" s="129" t="str">
         <f t="shared" ref="J25" si="30">IFERROR(MOD(H25+I25,360),"")</f>
         <v/>
       </c>
-      <c r="K25" s="132"/>
+      <c r="K25" s="130"/>
       <c r="L25" s="29"/>
-      <c r="M25" s="167"/>
-      <c r="N25" s="131" t="str">
+      <c r="M25" s="131"/>
+      <c r="N25" s="129" t="str">
         <f>IFERROR(MOD(J25+K25,360),"")</f>
         <v/>
       </c>
-      <c r="O25" s="132"/>
+      <c r="O25" s="130"/>
       <c r="P25" s="94" t="str">
         <f>IFERROR(SQRT(F25^2+D25^2-2*F25*D25*COS(RADIANS(C25-A25-G25))),"")</f>
         <v/>
@@ -17634,23 +17634,23 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="132"/>
-      <c r="B26" s="132"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="132"/>
+      <c r="A26" s="130"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="130"/>
       <c r="L26" s="29"/>
       <c r="M26" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="131"/>
-      <c r="O26" s="132"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="130"/>
       <c r="P26" s="44"/>
       <c r="Q26" s="44"/>
       <c r="R26" s="45"/>
@@ -17658,19 +17658,19 @@
       <c r="T26" s="44"/>
     </row>
     <row r="27" spans="1:20" ht="25.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="149" t="s">
+      <c r="A27" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="150"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="151"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="110"/>
       <c r="L27" s="30"/>
       <c r="M27" s="31" t="s">
         <v>67</v>
@@ -17693,59 +17693,107 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="152"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="154"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="113"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="144">
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="F17:F18"/>
@@ -17770,90 +17818,42 @@
     <mergeCell ref="O25:O26"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="I21:I22"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="G3:I4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="K23:K24"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -17865,8 +17865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CFACEB-C7F9-4EC2-B331-5938690C3313}">
   <dimension ref="B1:V57"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17994,7 +17994,7 @@
         <v>108</v>
       </c>
       <c r="D6" s="80">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="E6" s="98"/>
       <c r="F6" s="98"/>
@@ -18031,7 +18031,7 @@
       </c>
       <c r="H7" s="98">
         <f>COS((Wd-90)*(PI()/180))</f>
-        <v>1</v>
+        <v>0.34202014332566882</v>
       </c>
       <c r="I7" s="98"/>
       <c r="J7" s="99"/>
@@ -18053,7 +18053,7 @@
         <v>104</v>
       </c>
       <c r="D8" s="80">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E8" s="98"/>
       <c r="F8" s="98" t="s">
@@ -18064,7 +18064,7 @@
       </c>
       <c r="H8" s="98">
         <f>-SIN((Wd-90)*(PI()/180))</f>
-        <v>0</v>
+        <v>0.93969262078590832</v>
       </c>
       <c r="I8" s="98"/>
       <c r="J8" s="99"/>
@@ -18164,7 +18164,7 @@
       </c>
       <c r="H12" s="98">
         <f>COS((Wdm-90)*(PI()/180))</f>
-        <v>1</v>
+        <v>0.54463903501502708</v>
       </c>
       <c r="I12" s="98"/>
       <c r="J12" s="99"/>
@@ -18176,7 +18176,7 @@
       </c>
       <c r="D13" s="97">
         <f>MOD(Wd+DEV,360)</f>
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="E13" s="98"/>
       <c r="F13" s="98" t="s">
@@ -18187,7 +18187,7 @@
       </c>
       <c r="H13" s="98">
         <f>-SIN((Wdm-90)*(PI()/180))</f>
-        <v>0</v>
+        <v>0.83867056794542405</v>
       </c>
       <c r="I13" s="98"/>
       <c r="J13" s="99"/>
@@ -18255,7 +18255,7 @@
         <v>85</v>
       </c>
       <c r="D19" s="76">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E19" s="70"/>
       <c r="F19" s="86" t="s">
@@ -18263,7 +18263,7 @@
       </c>
       <c r="G19" s="87">
         <f>Ws*ABS(SIN(MOD(Wdm-(RWY*10),360)*(PI()/180)))</f>
-        <v>2.7361611466053493</v>
+        <v>6.7093645435633942</v>
       </c>
       <c r="H19" s="88" t="s">
         <v>91</v>
@@ -18284,7 +18284,7 @@
       </c>
       <c r="G20" s="84">
         <f>Ws*(COS(MOD(Wdm-(RWY*10),360)*(PI()/180)))</f>
-        <v>-7.5175409662872674</v>
+        <v>4.3571122801202131</v>
       </c>
       <c r="H20" s="85" t="s">
         <v>91</v>
@@ -18358,11 +18358,11 @@
       </c>
       <c r="D23" s="69">
         <f>-E23</f>
-        <v>0.93969262078590832</v>
+        <v>-1</v>
       </c>
       <c r="E23" s="69">
         <f>COS((RWY*10-90)*(PI()/180))</f>
-        <v>-0.93969262078590832</v>
+        <v>1</v>
       </c>
       <c r="F23" s="67"/>
       <c r="G23" s="67"/>
@@ -18388,11 +18388,11 @@
       </c>
       <c r="D24" s="69">
         <f>-E24</f>
-        <v>0.34202014332566888</v>
+        <v>0</v>
       </c>
       <c r="E24" s="69">
         <f>-SIN((RWY*10-90)*(PI()/180))</f>
-        <v>-0.34202014332566888</v>
+        <v>0</v>
       </c>
       <c r="F24" s="67"/>
       <c r="G24" s="67"/>
